--- a/portfolios/sml_equity/equity_curves/trend/MACD_eq_curve.xlsx
+++ b/portfolios/sml_equity/equity_curves/trend/MACD_eq_curve.xlsx
@@ -85911,16 +85911,16 @@
         <v>44186</v>
       </c>
       <c r="B5031">
-        <v>7805998.565503015</v>
+        <v>7805768.057469693</v>
       </c>
       <c r="C5031">
-        <v>6686490.355110777</v>
+        <v>6686488.696779602</v>
       </c>
       <c r="D5031">
-        <v>7805998.565503015</v>
+        <v>7805768.057469693</v>
       </c>
       <c r="E5031">
-        <v>1.167428374369306</v>
+        <v>1.167394190201677</v>
       </c>
     </row>
     <row r="5032" spans="1:5">
@@ -85928,16 +85928,16 @@
         <v>44187</v>
       </c>
       <c r="B5032">
-        <v>7872117.311803024</v>
+        <v>7872052.602969702</v>
       </c>
       <c r="C5032">
-        <v>6692039.727739136</v>
+        <v>6692037.603876786</v>
       </c>
       <c r="D5032">
-        <v>7872117.311803024</v>
+        <v>7872052.602969702</v>
       </c>
       <c r="E5032">
-        <v>1.176340492895216</v>
+        <v>1.176331196705966</v>
       </c>
     </row>
     <row r="5033" spans="1:5">
@@ -85945,16 +85945,16 @@
         <v>44188</v>
       </c>
       <c r="B5033">
-        <v>7891847.009903018</v>
+        <v>7891792.241069696</v>
       </c>
       <c r="C5033">
-        <v>6700609.779754593</v>
+        <v>6700607.279856736</v>
       </c>
       <c r="D5033">
-        <v>7891847.009903018</v>
+        <v>7891792.241069696</v>
       </c>
       <c r="E5033">
-        <v>1.177780421380105</v>
+        <v>1.177772687080749</v>
       </c>
     </row>
     <row r="5034" spans="1:5">
@@ -85962,16 +85962,16 @@
         <v>44189</v>
       </c>
       <c r="B5034">
-        <v>7128474.518173845</v>
+        <v>7128419.749340522</v>
       </c>
       <c r="C5034">
-        <v>6703644.281445509</v>
+        <v>6703641.410845982</v>
       </c>
       <c r="D5034">
-        <v>7128474.518173845</v>
+        <v>7128419.749340522</v>
       </c>
       <c r="E5034">
-        <v>1.063373027996755</v>
+        <v>1.063365313336611</v>
       </c>
     </row>
   </sheetData>
